--- a/Files/Vaccine_February 8, 2011.xlsx
+++ b/Files/Vaccine_February 8, 2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="307">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">$77.48</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">200-2010 -33940</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Hib [3]</t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">Comvax</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">200-2010-34037</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -263,8 +263,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -282,8 +281,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -292,7 +290,7 @@
     <t xml:space="preserve">$23.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -331,7 +329,7 @@
     <t xml:space="preserve">$22.83</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant [5]</t>
+    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil</t>
@@ -346,7 +344,7 @@
     <t xml:space="preserve">$130.27</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -370,7 +368,7 @@
     <t xml:space="preserve">5 pack-1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps, Rubella and Varicella (MMR-V) [2]</t>
+    <t xml:space="preserve">Measles, Mumps, Rubella and Varicella (MMR-V) </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -385,7 +383,7 @@
     <t xml:space="preserve">$133.93</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -418,7 +416,7 @@
     <t xml:space="preserve">200-2010-33942</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -433,8 +431,7 @@
     <t xml:space="preserve">$50.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -473,7 +470,7 @@
     <t xml:space="preserve">$48.968</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -491,7 +488,7 @@
     <t xml:space="preserve">$69.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">$102.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Decavac</t>
@@ -515,8 +512,7 @@
     <t xml:space="preserve">49281-0291-10</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$16.50</t>
@@ -543,7 +539,7 @@
     <t xml:space="preserve">200-2010-33941</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -561,8 +557,7 @@
     <t xml:space="preserve">58160-0842-51</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose TL syringes,
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose TL syringes, No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">Adacel</t>
@@ -580,7 +575,7 @@
     <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -595,7 +590,7 @@
     <t xml:space="preserve">$83.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -613,13 +608,13 @@
     <t xml:space="preserve">58160-0826-48</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$43.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX-B</t>
@@ -640,7 +635,7 @@
     <t xml:space="preserve">58160-0821-48</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult [5]</t>
+    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$89.168</t>
@@ -649,7 +644,7 @@
     <t xml:space="preserve">200-2010-35150</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">$89.17</t>
@@ -658,7 +653,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringe, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$33.614</t>
@@ -694,7 +689,7 @@
     <t xml:space="preserve">10 pack - 1 dose TL syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$55.364</t>
@@ -727,20 +722,19 @@
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">$9.661</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, H and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, H and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">$64.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -758,13 +752,10 @@
     <t xml:space="preserve">200-2010-33744</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0010-25</t>
@@ -779,12 +770,10 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0010-50</t>
@@ -799,15 +788,13 @@
     <t xml:space="preserve">49281-0010-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0877-46</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack- 1 dose
-TipLok syringe</t>
+    <t xml:space="preserve">10 pack- 1 dose TipLok syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$8.90</t>
@@ -819,8 +806,7 @@
     <t xml:space="preserve">200-2010-33739</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -838,8 +824,7 @@
     <t xml:space="preserve">200-2010-33743</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative Free</t>
+    <t xml:space="preserve">Fluvirin Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">66521-0113-02</t>
@@ -851,12 +836,10 @@
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0108-10</t>
@@ -877,15 +860,13 @@
     <t xml:space="preserve">200-2010-33740</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0010-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$9.75</t>
@@ -894,14 +875,13 @@
     <t xml:space="preserve">$11.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2010-33742</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]</t>
+    <t xml:space="preserve">Influenza </t>
   </si>
   <si>
     <t xml:space="preserve">$9.30</t>
@@ -910,11 +890,7 @@
     <t xml:space="preserve">200-2010-33748</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No Preservative</t>
+    <t xml:space="preserve">Fluzone No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$10.97</t>
@@ -3317,10 +3293,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
         <v>291</v>
-      </c>
-      <c r="B3" t="s">
-        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>253</v>
@@ -3329,7 +3305,7 @@
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>255</v>
@@ -3346,10 +3322,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
         <v>291</v>
-      </c>
-      <c r="B4" t="s">
-        <v>292</v>
       </c>
       <c r="C4" t="s">
         <v>256</v>
@@ -3358,7 +3334,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
         <v>255</v>
@@ -3375,13 +3351,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
         <v>294</v>
-      </c>
-      <c r="C5" t="s">
-        <v>295</v>
       </c>
       <c r="D5" t="s">
         <v>271</v>
@@ -3399,7 +3375,7 @@
         <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
@@ -3428,18 +3404,18 @@
         <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
         <v>271</v>
@@ -3448,7 +3424,7 @@
         <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" s="1">
         <v>40602</v>
@@ -3457,21 +3433,21 @@
         <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
       </c>
       <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
         <v>299</v>
-      </c>
-      <c r="D8" t="s">
-        <v>300</v>
       </c>
       <c r="E8" t="s">
         <v>260</v>
@@ -3486,7 +3462,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -3494,19 +3470,19 @@
         <v>288</v>
       </c>
       <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
         <v>302</v>
-      </c>
-      <c r="C9" t="s">
-        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" t="s">
         <v>304</v>
-      </c>
-      <c r="F9" t="s">
-        <v>305</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3515,12 +3491,12 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>274</v>
@@ -3529,7 +3505,7 @@
         <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
         <v>277</v>
@@ -3544,7 +3520,7 @@
         <v>279</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
